--- a/JavaScript/Java script Schedule.xlsx
+++ b/JavaScript/Java script Schedule.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Work\Other_Work\Sab\Clone\Sab\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F30574E0-C475-4BCD-81A2-A42158F62AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF582C-5FCE-4EF2-80F4-4A687CA52B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DD12D4B-5B0E-45B3-AAEC-89BF9B9852D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Topics to be covered</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>Overview</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -66,9 +64,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Variable and its types ,if else condition ,loop(for and While)</t>
-  </si>
-  <si>
     <t>Sunday</t>
   </si>
   <si>
@@ -157,13 +152,25 @@
   </si>
   <si>
     <t>functions  strings methods of strings arrays and  methods of arrays , loops(for each,for in,for off) map filter reduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview of JS </t>
+  </si>
+  <si>
+    <t>Variable and its types object ,if else condition ,loop(for and While)</t>
+  </si>
+  <si>
+    <t>Javascript  Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Completion </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +195,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -326,51 +340,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43FAEB4-A905-4EBC-BCF5-D38EA83842BC}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,541 +756,590 @@
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="98.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="15">
         <v>45225</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15">
+        <v>45226</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45226</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="D4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="23">
         <v>45227</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="15">
         <v>45228</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
+      <c r="C6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="15">
         <v>45229</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="15">
         <v>45230</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
+      <c r="C8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="15">
         <v>45231</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15">
+        <v>45232</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45232</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="26">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="15">
         <v>45233</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="15">
         <v>45234</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+        <v>17</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="15">
         <v>45235</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="14"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="15">
         <v>45236</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
+      <c r="C14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="15">
         <v>45237</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>25</v>
+      <c r="C15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="15">
         <v>45238</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
+      <c r="C16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="15">
         <v>45239</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
+      <c r="C17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="15">
         <v>45240</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
+      <c r="C18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="F18" s="26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="15">
         <v>45241</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="15">
         <v>45242</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
+      <c r="C20" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="15">
         <v>45243</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
+      <c r="C21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="15">
         <v>45244</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
+      <c r="C22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="15">
         <v>45245</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
+      <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="15">
         <v>45246</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15">
+        <v>45247</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5">
-        <v>45247</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>30</v>
+      <c r="D25" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="15">
         <v>45248</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>31</v>
+      <c r="D26" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="15">
         <v>45249</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>32</v>
+      <c r="C27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="15">
         <v>45250</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>33</v>
+      <c r="C28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="15">
         <v>45251</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>34</v>
+      <c r="C29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="15">
         <v>45252</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>35</v>
+      <c r="C30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="15">
         <v>45253</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>36</v>
+      <c r="C31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="15">
         <v>45254</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>37</v>
+      <c r="C32" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="15">
         <v>45255</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>38</v>
+      <c r="D33" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="15">
         <v>45256</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>38</v>
+      <c r="C34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="15">
         <v>45257</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>39</v>
+      <c r="C35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="7">
         <v>45258</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="20"/>
+      <c r="C36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="27">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1241,4 +1349,16 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE1548A-D9F4-4B5D-83ED-77AE29ADE1A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaScript/Java script Schedule.xlsx
+++ b/JavaScript/Java script Schedule.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Work\Other_Work\Sab\Clone\Sab\JavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT Work\Other_Work\Sab\Clone\Sab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF582C-5FCE-4EF2-80F4-4A687CA52B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B2B79-D07C-43B3-8B48-C058B9C1089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DD12D4B-5B0E-45B3-AAEC-89BF9B9852D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JavaScript Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Topics to be covered</t>
   </si>
@@ -76,36 +76,12 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t xml:space="preserve">js in the browser, js tags, console objects, alert prompt ,confirm overview of dom and bom  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">walking in the dom children parent and sibling element and Elements only navigation </t>
-  </si>
-  <si>
     <t xml:space="preserve">table navigation,Searching the dom </t>
   </si>
   <si>
-    <t>Matches closet and contain ,inner HTML and outer HTML,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Holiday </t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute methods,HTML insertion methods,insert adjacent HTML/Text/Element,class name and class list  </t>
-  </si>
-  <si>
-    <t>set timeout &amp; set time, browser events, event handling browser event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call backs, call back hell ,promises, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">methods of promises, promise chaining </t>
-  </si>
-  <si>
-    <t xml:space="preserve">attaching handlers promise api ,ascynch await </t>
-  </si>
-  <si>
     <t>Projects small</t>
   </si>
   <si>
@@ -118,59 +94,432 @@
     <t xml:space="preserve">local storage session storage </t>
   </si>
   <si>
-    <t>to do list oops concept prototype classes and objects consructors</t>
-  </si>
-  <si>
-    <t>inheritence method overriding overriding constructors</t>
-  </si>
-  <si>
-    <t>getter setter IIFE destructuring</t>
-  </si>
-  <si>
-    <t>scope and hosting closers</t>
-  </si>
-  <si>
     <t xml:space="preserve">arrow functions </t>
   </si>
   <si>
-    <t>js on the server  npm packages</t>
-  </si>
-  <si>
-    <t>js module</t>
-  </si>
-  <si>
-    <t>express js server   reguler expression</t>
-  </si>
-  <si>
-    <t>event loops   project</t>
-  </si>
-  <si>
-    <t>Project 1</t>
-  </si>
-  <si>
-    <t>Project 2</t>
-  </si>
-  <si>
-    <t>functions  strings methods of strings arrays and  methods of arrays , loops(for each,for in,for off) map filter reduce</t>
-  </si>
-  <si>
     <t xml:space="preserve">Overview of JS </t>
   </si>
   <si>
-    <t>Variable and its types object ,if else condition ,loop(for and While)</t>
-  </si>
-  <si>
     <t>Javascript  Topics</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage Completion </t>
+  </si>
+  <si>
+    <t>Project 2(Snake game ----&gt; Nokia Phone)</t>
+  </si>
+  <si>
+    <t>call backs, call back hell,Pyramid of doom ,</t>
+  </si>
+  <si>
+    <t>static methods ,getter setter IIFE destructuring</t>
+  </si>
+  <si>
+    <t>Project 3(Car Race ----&gt; Video Game)</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>Project 1(PDF Merger )</t>
+  </si>
+  <si>
+    <t>Project 4(calculator)</t>
+  </si>
+  <si>
+    <t>oops concept, prototype classes and objects constructors</t>
+  </si>
+  <si>
+    <t>inheritence, method overriding ,overriding constructors</t>
+  </si>
+  <si>
+    <t>js on the server  ,npm and packages,js module</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">scope and hoisting, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set timeout &amp; set time Interval,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> browser events, event handling browser event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">attaching handlers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promise api ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ascynch await </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attribute methods,HTML insertion methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,insert adjacent HTML/Text/Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">class name and class list  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Matches closet and contain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,inner HTML and outer HTML,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strings methods of strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">arrays and  methods of arrays , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">loops(for each,for in,for off) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map filter reduce</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">express js server,  </t>
+  </si>
+  <si>
+    <t>event loops   project, regular expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Js validation ( Project ) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>walking in the dom</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>children parent and sibling element and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Elements only navigation </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>js in the browser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, js tags, console objects,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ert ,prompt ,confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">overview of dom and bom  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Variable and its type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s object ,if else condition ,loop(for and While)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promises, methods of promises, promise chaining</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +555,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +616,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -343,93 +715,60 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,15 +1083,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43FAEB4-A905-4EBC-BCF5-D38EA83842BC}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="98.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -763,14 +1102,14 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="11"/>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -782,27 +1121,27 @@
       <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>42</v>
+      <c r="F2" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="9">
         <v>45225</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5"/>
@@ -811,37 +1150,37 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="9">
         <v>45226</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="13">
         <v>45227</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="26">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15">
         <v>0.2</v>
       </c>
     </row>
@@ -849,81 +1188,93 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <v>45228</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="5"/>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="9">
         <v>45229</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="9">
         <v>45230</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="9">
         <v>45231</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="9">
         <v>45232</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="26">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15">
         <v>0.45</v>
       </c>
     </row>
@@ -931,125 +1282,135 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="9">
         <v>45233</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="9">
         <v>45234</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="14"/>
+      <c r="D12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="33"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="9">
         <v>45235</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="9">
         <v>45236</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="5"/>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="9">
         <v>45237</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="9">
         <v>45238</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="9">
         <v>45239</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="9">
         <v>45240</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="26">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="15">
         <v>0.6</v>
       </c>
     </row>
@@ -1057,288 +1418,323 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="9">
         <v>45241</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="D19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="32"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="9">
         <v>45242</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="9">
         <v>45243</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="D21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="9">
         <v>45244</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="9">
         <v>45245</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="27">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="9">
         <v>45246</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="9">
         <v>45247</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="27">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="9">
         <v>45248</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="5"/>
+      <c r="D26" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="27">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="9">
         <v>45249</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="27">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="9">
         <v>45250</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="13"/>
+      <c r="D28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="9">
         <v>45251</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="9">
         <v>45252</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="9">
         <v>45253</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="13"/>
+      <c r="D31" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="9">
         <v>45254</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="13"/>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="19">
         <v>31</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="20">
         <v>45255</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="13"/>
+      <c r="D33" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="19">
         <v>32</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="20">
         <v>45256</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="13"/>
+      <c r="D34" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="20">
         <v>45257</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="13"/>
+      <c r="D35" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+      <c r="A36" s="23">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="24">
         <v>45258</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="27">
+      <c r="D36" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1348,6 +1744,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1355,7 +1752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE1548A-D9F4-4B5D-83ED-77AE29ADE1A8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
